--- a/nflx_stock_yearly_earnings_per_share_df.xlsx
+++ b/nflx_stock_yearly_earnings_per_share_df.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D212C739C431921FD2FE31D2F8F2D3C2E452EDEA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{250C56C9-FD25-4DEF-80FD-1937F2FA8480}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -64,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +134,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,14 +431,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1148</v>
       </c>
@@ -459,7 +486,7 @@
         <v>1.93</v>
       </c>
       <c r="E2">
-        <v>58239896.3731</v>
+        <v>58239896.373099998</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -468,7 +495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1149</v>
       </c>
@@ -479,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E3">
         <v>60089864.8649</v>
@@ -491,7 +518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1150</v>
       </c>
@@ -502,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E4">
         <v>422900000</v>
@@ -514,7 +541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1151</v>
       </c>

--- a/nflx_stock_yearly_earnings_per_share_df.xlsx
+++ b/nflx_stock_yearly_earnings_per_share_df.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D212C739C431921FD2FE31D2F8F2D3C2E452EDEA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{250C56C9-FD25-4DEF-80FD-1937F2FA8480}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -46,32 +40,17 @@
     <t>NFLX</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
-    <t>(+)</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Solid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,21 +113,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +191,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,25 +400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +430,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -482,80 +440,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1.93</v>
-      </c>
-      <c r="E2">
-        <v>58239896.373099998</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1149</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="E3">
-        <v>60089864.8649</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E4">
-        <v>422900000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/nflx_stock_yearly_earnings_per_share_df.xlsx
+++ b/nflx_stock_yearly_earnings_per_share_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -40,10 +40,19 @@
     <t>NFLX</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>(+)</t>
+  </si>
+  <si>
+    <t>Solid</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +441,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -440,11 +449,63 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2">
+        <v>1.93</v>
+      </c>
+      <c r="E2">
+        <v>58239896.3731</v>
+      </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="D3">
+        <v>4.44</v>
+      </c>
+      <c r="E3">
+        <v>60089864.8649</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0.29</v>
+      </c>
+      <c r="E4">
+        <v>422900000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/nflx_stock_yearly_earnings_per_share_df.xlsx
+++ b/nflx_stock_yearly_earnings_per_share_df.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E1B825081631921FD2FE31D2F8F2D3C264DAC0F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C43C6346-03CE-4CAF-9408-159E316B023A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2100" yWindow="4440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +128,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,9 +249,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,14 +425,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1148</v>
       </c>
@@ -453,7 +480,7 @@
         <v>1.93</v>
       </c>
       <c r="E2">
-        <v>58239896.3731</v>
+        <v>58239896.373099998</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -462,7 +489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1149</v>
       </c>
@@ -473,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="E3">
         <v>60089864.8649</v>
@@ -485,7 +512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1150</v>
       </c>
@@ -496,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E4">
         <v>422900000</v>

--- a/nflx_stock_yearly_earnings_per_share_df.xlsx
+++ b/nflx_stock_yearly_earnings_per_share_df.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E1B825081631921FD2FE31D2F8F2D3C264DAC0F7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C43C6346-03CE-4CAF-9408-159E316B023A}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="4440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,21 +122,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,25 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1148</v>
       </c>
@@ -480,7 +453,7 @@
         <v>1.93</v>
       </c>
       <c r="E2">
-        <v>58239896.373099998</v>
+        <v>58239896.3731</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -489,7 +462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1149</v>
       </c>
@@ -500,7 +473,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="E3">
         <v>60089864.8649</v>
@@ -512,7 +485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1150</v>
       </c>
@@ -523,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="E4">
         <v>422900000</v>
